--- a/biology/Médecine/Bernhard_Siegfried_Albinus/Bernhard_Siegfried_Albinus.xlsx
+++ b/biology/Médecine/Bernhard_Siegfried_Albinus/Bernhard_Siegfried_Albinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Siegfried Albinus (né le 24 février 1697 à Francfort-sur-l'Oder – mort le 9 septembre 1770 à Leyde) était un médecin et anatomiste allemand du XVIIIe siècle.
 </t>
@@ -511,15 +523,52 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Bernhard Siegfried Albinus est né à Francfort-sur-l'Oder, où son père Bernhard Albinus (1653–1721) était professeur de médecine. En 1702, la famille déménage à Leyde, où le père vient d'obtenir la chaire de médecine de l'université de Leyde, qu'il conservera jusqu'à son mort en 1721.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernhard Siegfried Albinus est né à Francfort-sur-l'Oder, où son père Bernhard Albinus (1653–1721) était professeur de médecine. En 1702, la famille déménage à Leyde, où le père vient d'obtenir la chaire de médecine de l'université de Leyde, qu'il conservera jusqu'à son mort en 1721.
 Bernhard Siegfried étudie à l'université de Leyde dès l'âge de 12 ans. En 1718, il se rend à Paris, pour étudier l'anatomie et la botanique auprès de Sébastien Vaillant. Après une année, il retourne à Leyde où il devient lecteur d'anatomie et de chirurgie.
 En 1721, Bernhard Siegfried Albinus succède à son père à la chaire d'anatomie de l'université de Leyde.
 En 1745, il devient professeur de médecine. Ses frères Friedrich Bernhard Albinus (1715-1778) et Christian Bernhard Albinus (1699-1752) furent aussi des savants reconnus. Le plus jeune lui succède à la chaire d'anatomie.
 Bernhard Siegfried a été à deux reprises recteur de l'université de Leyde. C'est dans cette ville qu'il meurt le 9 septembre 1770, à l'âge de 73 ans.
-Œuvres (liste incomplète)
-Libellus de ossibus corporis humani (1726)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bernhard_Siegfried_Albinus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernhard_Siegfried_Albinus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Œuvres (liste incomplète)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Libellus de ossibus corporis humani (1726)
 Historia musculorum corporis humani (1734)
 Tabulae sceleti et musculorum corporis humani (Leyde, 1747) réédité à Londres en 1749 : cette 2e édition assurée par les Knapton enrichie de dessins de Jan Wandelaar, gravés par Charles Grignion, Louis-Philippe Boitard et Jean-Baptiste Scotin)</t>
         </is>
